--- a/data/seminars_biotech_2025.xlsx
+++ b/data/seminars_biotech_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Text\Lectures\Ecology_University\General-ecology\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB8B397C-61B0-4A32-A58F-398B6570D613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50E627BF-1C4F-4118-80C4-C1C921C100D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{14C4A00C-C07B-48B7-BAAF-149896EA397D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="78">
   <si>
     <t>Family</t>
   </si>
@@ -264,7 +264,10 @@
     <t>Group</t>
   </si>
   <si>
-    <t>Score</t>
+    <t>Seminar_1</t>
+  </si>
+  <si>
+    <t>Seminar_2</t>
   </si>
 </sst>
 </file>
@@ -659,10 +662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BE6646D-9006-4B19-92A1-BE515C050B6D}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -674,7 +677,7 @@
     <col min="5" max="5" width="23.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -696,8 +699,11 @@
       <c r="G1" s="3" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -714,7 +720,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -734,8 +740,11 @@
       <c r="G3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
@@ -757,8 +766,11 @@
       <c r="G4">
         <v>1.25</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
@@ -780,8 +792,11 @@
       <c r="G5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
@@ -798,7 +813,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>28</v>
       </c>
@@ -815,7 +830,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>32</v>
       </c>
@@ -837,8 +852,11 @@
       <c r="G8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H8">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>36</v>
       </c>
@@ -860,8 +878,11 @@
       <c r="G9">
         <v>1.25</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H9">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>41</v>
       </c>
@@ -883,8 +904,11 @@
       <c r="G10">
         <v>1.25</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>46</v>
       </c>
@@ -907,7 +931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>51</v>
       </c>
@@ -929,8 +953,11 @@
       <c r="G12">
         <v>1.25</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>56</v>
       </c>
@@ -951,7 +978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>60</v>
       </c>
@@ -973,8 +1000,11 @@
       <c r="G14">
         <v>1.25</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H14">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>65</v>
       </c>
@@ -991,7 +1021,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>70</v>
       </c>
